--- a/IEDC_Classification_fill/generic_materials_waste_data.xlsx
+++ b/IEDC_Classification_fill/generic_materials_waste_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -440,6 +440,12 @@
   </si>
   <si>
     <t>reserved</t>
+  </si>
+  <si>
+    <t>aluminium scrap recovered for recycling</t>
+  </si>
+  <si>
+    <t>total aluminium scrap</t>
   </si>
 </sst>
 </file>
@@ -815,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2716,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F124" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2730,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
